--- a/IPcalc.xlsx
+++ b/IPcalc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc_\Documents\GitRepo\ExcelFormulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8ED36F-9600-407C-8E7F-63FE79FFD662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA8C22-CF51-4B3C-87CE-8B37C5B040AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1935" windowWidth="21600" windowHeight="12645" xr2:uid="{98D199A3-4B75-4C6A-8DFB-C525919C22B2}"/>
+    <workbookView xWindow="-26130" yWindow="2025" windowWidth="25650" windowHeight="12780" activeTab="1" xr2:uid="{98D199A3-4B75-4C6A-8DFB-C525919C22B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IpCalc" sheetId="1" r:id="rId1"/>
+    <sheet name="IP-Subnetbit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Start IP</t>
   </si>
@@ -88,13 +89,34 @@
   </si>
   <si>
     <t>10.100.10.20</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>172.16.0.0/11</t>
+  </si>
+  <si>
+    <t>192.168.0.0/16</t>
+  </si>
+  <si>
+    <t>10.100.10.20/20</t>
+  </si>
+  <si>
+    <t>IpAndSubnet</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>SubnetBIt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +146,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft GothicNeo"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -197,6 +233,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,10 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4B8FD7-8994-486D-B569-9DD62856E17A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -995,4 +1033,139 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A15119-5C5C-4A1A-8555-F87BA38B4405}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>_xlfn.TEXTBEFORE(A2,"/",1,1)</f>
+        <v>10.0.0.0</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>_xlfn.TEXTAFTER(A2,"/",1,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B9" si="0">_xlfn.TEXTBEFORE(A3,"/",1,1)</f>
+        <v>172.16.0.0</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C9" si="1">_xlfn.TEXTAFTER(A3,"/",1,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>192.168.0.0</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>10.100.10.20</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>10.0.0.0</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>172.16.0.0</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>192.168.0.0</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>10.100.10.20</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>